--- a/1/мп 1.xlsx
+++ b/1/мп 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\универ\мп\mp-4sem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\универ\мп\mp-4sem\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Время</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>коэффициент корреляции</t>
+  </si>
+  <si>
+    <t>критерий Стьюдента</t>
   </si>
 </sst>
 </file>
@@ -49,12 +52,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -84,11 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -113,16 +130,26 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1142934153432841"/>
+          <c:y val="2.5357893282730241E-2"/>
+          <c:w val="0.7848087170921817"/>
+          <c:h val="0.74421372536189212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -132,7 +159,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -141,6 +168,65 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$2:$A$14</c:f>
@@ -542,42 +628,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1398,7 +1450,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1408,10 +1460,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1430,11 +1482,11 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f>CORREL(A2:A14,B2:B14)</f>
         <v>0.9901668989566359</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1445,9 +1497,12 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="L4">
-        <f>FISHER(L3)</f>
-        <v>2.6551097156671335</v>
+      <c r="L4" s="1">
+        <f>_xlfn.T.TEST(A2:A14,B2:B14,1,1)</f>
+        <v>1.8755386382418585E-2</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
